--- a/data/Airliners.xlsx
+++ b/data/Airliners.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\Riipen Quantum International Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\QIS_Projects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC1A5D7-FB66-4CEC-96E3-1A41DBB73D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6803DD-A22C-49A4-BF2F-4E439FF28B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27C1D7C3-6AFB-4F84-B902-C3DD86A7405B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>India</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> United States</t>
   </si>
   <si>
     <t>Qantas</t>
@@ -358,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,13 +674,13 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
@@ -693,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -702,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,16 +711,16 @@
         <v>A001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,16 +729,16 @@
         <v>A002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,16 +747,16 @@
         <v>A003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,16 +765,16 @@
         <v>A004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,16 +801,16 @@
         <v>A006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,16 +819,16 @@
         <v>A007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,16 +837,16 @@
         <v>A008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,16 +855,16 @@
         <v>A009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,16 +873,16 @@
         <v>A010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>A011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -912,7 +909,7 @@
         <v>A012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -930,16 +927,16 @@
         <v>A013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,16 +945,16 @@
         <v>A014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,16 +963,16 @@
         <v>A015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,16 +981,16 @@
         <v>A016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,16 +999,16 @@
         <v>A017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,16 +1017,16 @@
         <v>A018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
         <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,16 +1035,16 @@
         <v>A019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,16 +1053,16 @@
         <v>A020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,16 +1071,16 @@
         <v>A021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,16 +1089,16 @@
         <v>A022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,16 +1107,16 @@
         <v>A023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,16 +1125,16 @@
         <v>A024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,16 +1143,16 @@
         <v>A025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
         <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
